--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>274.30797817179985</v>
+        <v>274.3079781340532</v>
       </c>
       <c r="C2">
-        <v>265.48469883431295</v>
+        <v>265.48469883887083</v>
       </c>
       <c r="D2">
-        <v>194.14005719998332</v>
+        <v>194.14005716347725</v>
       </c>
       <c r="E2">
-        <v>267.34277832688525</v>
+        <v>267.34277828812515</v>
       </c>
       <c r="F2">
-        <v>201.8460674111839</v>
+        <v>201.84606739505455</v>
       </c>
       <c r="G2">
-        <v>274.55097281948542</v>
+        <v>274.55097281320485</v>
       </c>
       <c r="H2">
-        <v>238.00247911785215</v>
+        <v>238.00247907963825</v>
       </c>
       <c r="I2">
-        <v>300.15893160393478</v>
+        <v>300.15893157989683</v>
       </c>
       <c r="J2">
-        <v>240.12064359585298</v>
+        <v>240.12064361023226</v>
       </c>
       <c r="K2">
-        <v>249.89699242306659</v>
+        <v>249.89699241337382</v>
       </c>
       <c r="L2">
-        <v>229.85418353697199</v>
+        <v>229.85418347979902</v>
       </c>
       <c r="M2">
-        <v>298.81213036023041</v>
+        <v>298.81213031783858</v>
       </c>
       <c r="N2">
-        <v>287.1509269742632</v>
+        <v>287.15092691514974</v>
       </c>
       <c r="O2">
-        <v>258.41349155921614</v>
+        <v>258.41349152390097</v>
       </c>
       <c r="P2">
-        <v>278.64339867267017</v>
+        <v>278.64339868701694</v>
       </c>
       <c r="Q2">
-        <v>328.01227393390946</v>
+        <v>328.01227392114248</v>
       </c>
       <c r="R2">
-        <v>303.32534831958935</v>
+        <v>303.32534830605175</v>
       </c>
       <c r="S2">
-        <v>293.39244654861585</v>
+        <v>293.39244653894394</v>
       </c>
       <c r="T2">
-        <v>295.94349721416228</v>
+        <v>295.94349718219581</v>
       </c>
       <c r="U2">
-        <v>238.5403090039556</v>
+        <v>238.54030897475437</v>
       </c>
       <c r="V2">
-        <v>292.81380705231703</v>
+        <v>292.81380704115691</v>
       </c>
       <c r="W2">
-        <v>304.07670541164248</v>
+        <v>304.07670538827205</v>
       </c>
       <c r="X2">
-        <v>266.03184590105565</v>
+        <v>266.03184588461409</v>
       </c>
       <c r="Y2">
-        <v>253.12182307152267</v>
+        <v>253.12182303251649</v>
       </c>
       <c r="Z2">
-        <v>224.51629140377645</v>
+        <v>224.51629137943925</v>
       </c>
       <c r="AA2">
-        <v>295.11224065989722</v>
+        <v>295.11224059610464</v>
       </c>
       <c r="AB2">
-        <v>269.51604160413501</v>
+        <v>269.51604160402201</v>
       </c>
       <c r="AC2">
-        <v>220.83422246165253</v>
+        <v>220.83422245668089</v>
       </c>
       <c r="AD2">
-        <v>267.71383927561465</v>
+        <v>267.71383922980596</v>
       </c>
       <c r="AE2">
-        <v>235.23073211633351</v>
+        <v>235.23073211404846</v>
       </c>
       <c r="AF2">
-        <v>272.80834613937748</v>
+        <v>272.808346139317</v>
       </c>
       <c r="AG2">
-        <v>233.73627619174272</v>
+        <v>233.7362761645249</v>
       </c>
       <c r="AH2">
-        <v>296.51180292359754</v>
+        <v>296.51180291164997</v>
       </c>
       <c r="AI2">
-        <v>240.13771584511625</v>
+        <v>240.13771583639607</v>
       </c>
       <c r="AJ2">
-        <v>242.91685434996754</v>
+        <v>242.91685432201695</v>
       </c>
       <c r="AK2">
-        <v>225.52620066045935</v>
+        <v>225.52620060916286</v>
       </c>
       <c r="AL2">
-        <v>292.61806765064637</v>
+        <v>292.61806761249647</v>
       </c>
       <c r="AM2">
-        <v>287.77159077547174</v>
+        <v>287.77159071924564</v>
       </c>
       <c r="AN2">
-        <v>254.60381933646042</v>
+        <v>254.60381929862123</v>
       </c>
       <c r="AO2">
-        <v>287.15439891213202</v>
+        <v>287.15439887631953</v>
       </c>
       <c r="AP2">
-        <v>336.53002006969342</v>
+        <v>336.53002005386776</v>
       </c>
       <c r="AQ2">
-        <v>305.66392847691037</v>
+        <v>305.6639284405972</v>
       </c>
       <c r="AR2">
-        <v>295.11651230983693</v>
+        <v>295.11651229783024</v>
       </c>
       <c r="AS2">
-        <v>293.71711566865537</v>
+        <v>293.71711565062799</v>
       </c>
       <c r="AT2">
-        <v>237.19226443142486</v>
+        <v>237.19226441646296</v>
       </c>
       <c r="AU2">
-        <v>296.42963768602215</v>
+        <v>296.42963767678623</v>
       </c>
       <c r="AV2">
-        <v>293.17635662218396</v>
+        <v>293.17635660661324</v>
       </c>
       <c r="AW2">
-        <v>263.38530383707291</v>
+        <v>263.38530382953536</v>
       </c>
       <c r="AX2">
-        <v>253.81652308786283</v>
+        <v>253.81652305993319</v>
       </c>
       <c r="AY2">
-        <v>244.79243909779711</v>
+        <v>244.79243908280415</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>293.19707610923274</v>
+        <v>293.19707612559671</v>
       </c>
       <c r="C3">
-        <v>260.89614041386886</v>
+        <v>260.89614038138006</v>
       </c>
       <c r="D3">
-        <v>219.43554898770938</v>
+        <v>219.43554897162804</v>
       </c>
       <c r="E3">
-        <v>260.1968484776578</v>
+        <v>260.19684846831916</v>
       </c>
       <c r="F3">
-        <v>240.88121374037001</v>
+        <v>240.88121372506191</v>
       </c>
       <c r="G3">
-        <v>268.00847548125512</v>
+        <v>268.00847546206649</v>
       </c>
       <c r="H3">
-        <v>230.43824286872172</v>
+        <v>230.43824283049005</v>
       </c>
       <c r="I3">
-        <v>311.29626231132352</v>
+        <v>311.29626229702069</v>
       </c>
       <c r="J3">
-        <v>240.77802110121337</v>
+        <v>240.77802109463522</v>
       </c>
       <c r="K3">
-        <v>253.52668945196919</v>
+        <v>253.52668941622238</v>
       </c>
       <c r="L3">
-        <v>270.73427176385536</v>
+        <v>270.73427171819708</v>
       </c>
       <c r="M3">
-        <v>297.31347590372303</v>
+        <v>297.31332952733885</v>
       </c>
       <c r="N3">
-        <v>294.73978125141667</v>
+        <v>294.73978121257522</v>
       </c>
       <c r="O3">
-        <v>250.20360563115833</v>
+        <v>250.20360560472221</v>
       </c>
       <c r="P3">
-        <v>289.27798024853058</v>
+        <v>289.277980213251</v>
       </c>
       <c r="Q3">
-        <v>322.55624288450105</v>
+        <v>322.55624286277077</v>
       </c>
       <c r="R3">
-        <v>301.61579615876985</v>
+        <v>301.61579614208551</v>
       </c>
       <c r="S3">
-        <v>298.42337088098509</v>
+        <v>298.42337086498833</v>
       </c>
       <c r="T3">
-        <v>276.25549322472381</v>
+        <v>276.25549318878939</v>
       </c>
       <c r="U3">
-        <v>219.20125240351254</v>
+        <v>219.20125237602525</v>
       </c>
       <c r="V3">
-        <v>303.00007816439864</v>
+        <v>303.00007814496587</v>
       </c>
       <c r="W3">
-        <v>265.20388635257933</v>
+        <v>265.2038862717809</v>
       </c>
       <c r="X3">
-        <v>268.8737782159393</v>
+        <v>268.87377815761914</v>
       </c>
       <c r="Y3">
-        <v>251.89023797267032</v>
+        <v>251.89023795509971</v>
       </c>
       <c r="Z3">
-        <v>259.91128587785909</v>
+        <v>259.91128585903124</v>
       </c>
       <c r="AA3">
-        <v>302.19066382720439</v>
+        <v>302.19066378919001</v>
       </c>
       <c r="AB3">
-        <v>254.02789376444946</v>
+        <v>254.02789374149867</v>
       </c>
       <c r="AC3">
-        <v>221.38214633974624</v>
+        <v>221.38214630885346</v>
       </c>
       <c r="AD3">
-        <v>255.09276090029277</v>
+        <v>255.09276084767396</v>
       </c>
       <c r="AE3">
-        <v>256.57273446666727</v>
+        <v>256.57273446807227</v>
       </c>
       <c r="AF3">
-        <v>265.84453342399206</v>
+        <v>265.84453339674411</v>
       </c>
       <c r="AG3">
-        <v>233.67317764096595</v>
+        <v>233.67317760742486</v>
       </c>
       <c r="AH3">
-        <v>314.32850687430499</v>
+        <v>314.32850686853288</v>
       </c>
       <c r="AI3">
-        <v>241.62873942543501</v>
+        <v>241.62873937425579</v>
       </c>
       <c r="AJ3">
-        <v>253.88948886584683</v>
+        <v>253.88948881744699</v>
       </c>
       <c r="AK3">
-        <v>242.81102390820553</v>
+        <v>242.81102386580955</v>
       </c>
       <c r="AL3">
-        <v>307.13241946580257</v>
+        <v>307.13241944771971</v>
       </c>
       <c r="AM3">
-        <v>305.39943416946437</v>
+        <v>305.39943412595017</v>
       </c>
       <c r="AN3">
-        <v>248.23193481069296</v>
+        <v>248.23193479038781</v>
       </c>
       <c r="AO3">
-        <v>289.96001807196529</v>
+        <v>289.96001804368751</v>
       </c>
       <c r="AP3">
-        <v>320.70926917855763</v>
+        <v>320.70926914057134</v>
       </c>
       <c r="AQ3">
-        <v>307.63459348658432</v>
+        <v>307.6345934788614</v>
       </c>
       <c r="AR3">
-        <v>298.01424821824821</v>
+        <v>298.01424818913608</v>
       </c>
       <c r="AS3">
-        <v>275.49046040427061</v>
+        <v>275.49046037757381</v>
       </c>
       <c r="AT3">
-        <v>221.93919921769998</v>
+        <v>221.93919919520334</v>
       </c>
       <c r="AU3">
-        <v>298.71846602134133</v>
+        <v>298.71846599508689</v>
       </c>
       <c r="AV3">
-        <v>264.18794033578035</v>
+        <v>264.18794026872564</v>
       </c>
       <c r="AW3">
-        <v>266.53120664003342</v>
+        <v>266.53120661873027</v>
       </c>
       <c r="AX3">
-        <v>250.27916532701295</v>
+        <v>250.27916530082109</v>
       </c>
       <c r="AY3">
-        <v>262.03981013882105</v>
+        <v>262.03981011636813</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>274.3079781340532</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>265.48469883887083</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>194.14005716347725</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>267.34277828812515</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>201.84606739505455</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>274.55097281320485</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>238.00247907963825</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>300.15893157989683</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>240.12064361023226</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>249.89699241337382</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>229.85418347979902</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>298.81213031783858</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>287.15092691514974</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>258.41349152390097</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>278.64339868701694</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>328.01227392114248</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>303.32534830605175</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>293.39244653894394</v>
@@ -588,55 +477,55 @@
         <v>224.51629137943925</v>
       </c>
       <c r="AA2">
-        <v>295.11224059610464</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>269.51604160402201</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>220.83422245668089</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>267.71383922980596</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>235.23073211404846</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>272.808346139317</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>233.7362761645249</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>296.51180291164997</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>240.13771583639607</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>242.91685432201695</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>225.52620060916286</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>292.61806761249647</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>287.77159071924564</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>254.60381929862123</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>287.15439887631953</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>336.53002005386776</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>305.6639284405972</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>295.11651229783024</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>293.19707612559671</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>260.89614038138006</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>219.43554897162804</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>260.19684846831916</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>240.88121372506191</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>268.00847546206649</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>230.43824283049005</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>311.29626229702069</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>240.77802109463522</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>253.52668941622238</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>270.73427171819708</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>297.31332952733885</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>294.73978121257522</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>250.20360560472221</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>289.277980213251</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>322.55624286277077</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>301.61579614208551</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>298.42337086498833</v>
@@ -743,55 +629,55 @@
         <v>259.91128585903124</v>
       </c>
       <c r="AA3">
-        <v>302.19066378919001</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>254.02789374149867</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>221.38214630885346</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>255.09276084767396</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>256.57273446807227</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>265.84453339674411</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>233.67317760742486</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>314.32850686853288</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>241.62873937425579</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>253.88948881744699</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>242.81102386580955</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>307.13241944771971</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>305.39943412595017</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>248.23193479038781</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>289.96001804368751</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>320.70926914057134</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>307.6345934788614</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>298.01424818913608</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>274.30797817179985</v>
+        <v>258.41349152390097</v>
       </c>
       <c r="C2">
-        <v>265.48469883431295</v>
+        <v>303.32534830605175</v>
       </c>
       <c r="D2">
-        <v>194.14005719998332</v>
+        <v>254.60381929862123</v>
       </c>
       <c r="E2">
-        <v>267.34277832688525</v>
+        <v>305.6639284405972</v>
       </c>
       <c r="F2">
         <v>201.8460674111839</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>293.19707610923274</v>
+        <v>250.20360560472221</v>
       </c>
       <c r="C3">
-        <v>260.89614041386886</v>
+        <v>301.61579614208551</v>
       </c>
       <c r="D3">
-        <v>219.43554898770938</v>
+        <v>248.23193479038781</v>
       </c>
       <c r="E3">
-        <v>260.1968484776578</v>
+        <v>307.6631062766831</v>
       </c>
       <c r="F3">
         <v>240.88121374037001</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>274.30797817179985</v>
+        <v>289.32168099038631</v>
       </c>
       <c r="C2">
-        <v>265.48469883431295</v>
+        <v>261.58384151227301</v>
       </c>
       <c r="D2">
-        <v>194.14005719998332</v>
+        <v>289.58720152724482</v>
       </c>
       <c r="E2">
-        <v>267.34277832688525</v>
+        <v>257.34769713850034</v>
       </c>
       <c r="F2">
         <v>201.8460674111839</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>293.19707610923274</v>
+        <v>294.73978121257522</v>
       </c>
       <c r="C3">
-        <v>260.89614041386886</v>
+        <v>250.20360560472221</v>
       </c>
       <c r="D3">
-        <v>219.43554898770938</v>
+        <v>305.39943412595017</v>
       </c>
       <c r="E3">
-        <v>260.1968484776578</v>
+        <v>248.23193479038781</v>
       </c>
       <c r="F3">
         <v>240.88121374037001</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>274.58104751632982</v>
+      </c>
+      <c r="C2">
+        <v>265.48469883887083</v>
+      </c>
+      <c r="D2">
+        <v>196.57671643266553</v>
+      </c>
+      <c r="E2">
+        <v>270.85830705081435</v>
+      </c>
+      <c r="F2">
+        <v>201.84606739505455</v>
+      </c>
+      <c r="G2">
+        <v>274.55097281320485</v>
+      </c>
+      <c r="H2">
+        <v>238.52920921453287</v>
+      </c>
+      <c r="I2">
+        <v>301.32777646768943</v>
+      </c>
+      <c r="J2">
+        <v>240.15789589937663</v>
+      </c>
+      <c r="K2">
+        <v>251.3550745569309</v>
+      </c>
+      <c r="L2">
+        <v>232.6573340587986</v>
+      </c>
+      <c r="M2">
+        <v>298.81213031783858</v>
+      </c>
+      <c r="N2">
         <v>289.32168099038631</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>261.58384151227301</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>278.64339868701694</v>
+      </c>
+      <c r="Q2">
+        <v>328.01227392114248</v>
+      </c>
+      <c r="R2">
+        <v>303.32534830605175</v>
+      </c>
+      <c r="S2">
+        <v>294.05343836194015</v>
+      </c>
+      <c r="T2">
+        <v>295.94349718219581</v>
+      </c>
+      <c r="U2">
+        <v>239.28678460640401</v>
+      </c>
+      <c r="V2">
+        <v>295.07136161052381</v>
+      </c>
+      <c r="W2">
+        <v>307.12344856340258</v>
+      </c>
+      <c r="X2">
+        <v>267.34630051900791</v>
+      </c>
+      <c r="Y2">
+        <v>253.5664347662746</v>
+      </c>
+      <c r="Z2">
+        <v>224.51629137943925</v>
+      </c>
+      <c r="AA2">
+        <v>295.52029130575511</v>
+      </c>
+      <c r="AB2">
+        <v>269.51604160402201</v>
+      </c>
+      <c r="AC2">
+        <v>222.94321390293587</v>
+      </c>
+      <c r="AD2">
+        <v>270.83094898750414</v>
+      </c>
+      <c r="AE2">
+        <v>235.23073211404846</v>
+      </c>
+      <c r="AF2">
+        <v>272.808346139317</v>
+      </c>
+      <c r="AG2">
+        <v>234.17439547154189</v>
+      </c>
+      <c r="AH2">
+        <v>297.07684529420652</v>
+      </c>
+      <c r="AI2">
+        <v>240.22511699568346</v>
+      </c>
+      <c r="AJ2">
+        <v>245.01422127403649</v>
+      </c>
+      <c r="AK2">
+        <v>227.471037465758</v>
+      </c>
+      <c r="AL2">
+        <v>292.61806761249647</v>
+      </c>
+      <c r="AM2">
         <v>289.58720152724482</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>257.34769713850034</v>
       </c>
-      <c r="F2">
-        <v>201.8460674111839</v>
-      </c>
-      <c r="G2">
-        <v>274.55097281948542</v>
-      </c>
-      <c r="H2">
-        <v>238.00247911785215</v>
-      </c>
-      <c r="I2">
-        <v>300.15893160393478</v>
-      </c>
-      <c r="J2">
-        <v>240.12064359585298</v>
-      </c>
-      <c r="K2">
-        <v>249.89699242306659</v>
-      </c>
-      <c r="L2">
-        <v>229.85418353697199</v>
-      </c>
-      <c r="M2">
-        <v>298.81213036023041</v>
-      </c>
-      <c r="N2">
-        <v>287.1509269742632</v>
-      </c>
-      <c r="O2">
-        <v>258.41349155921614</v>
-      </c>
-      <c r="P2">
-        <v>278.64339867267017</v>
-      </c>
-      <c r="Q2">
-        <v>328.01227393390946</v>
-      </c>
-      <c r="R2">
-        <v>303.32534831958935</v>
-      </c>
-      <c r="S2">
-        <v>293.39244654861585</v>
-      </c>
-      <c r="T2">
-        <v>295.94349721416228</v>
-      </c>
-      <c r="U2">
-        <v>238.5403090039556</v>
-      </c>
-      <c r="V2">
-        <v>292.81380705231703</v>
-      </c>
-      <c r="W2">
-        <v>304.08672725248061</v>
-      </c>
-      <c r="X2">
-        <v>266.03184590105565</v>
-      </c>
-      <c r="Y2">
-        <v>253.12182307152267</v>
-      </c>
-      <c r="Z2">
-        <v>224.51629140377645</v>
-      </c>
-      <c r="AA2">
-        <v>295.11224065989722</v>
-      </c>
-      <c r="AB2">
-        <v>269.51604160413501</v>
-      </c>
-      <c r="AC2">
-        <v>220.83422246165253</v>
-      </c>
-      <c r="AD2">
-        <v>267.71383927561465</v>
-      </c>
-      <c r="AE2">
-        <v>235.23073211633351</v>
-      </c>
-      <c r="AF2">
-        <v>272.80834613937748</v>
-      </c>
-      <c r="AG2">
-        <v>233.73627619174272</v>
-      </c>
-      <c r="AH2">
-        <v>296.51180292359754</v>
-      </c>
-      <c r="AI2">
-        <v>240.13771584511625</v>
-      </c>
-      <c r="AJ2">
-        <v>242.91685434996754</v>
-      </c>
-      <c r="AK2">
-        <v>225.52620066045935</v>
-      </c>
-      <c r="AL2">
-        <v>292.61806765064637</v>
-      </c>
-      <c r="AM2">
-        <v>287.77159077547174</v>
-      </c>
-      <c r="AN2">
-        <v>254.60381933646042</v>
-      </c>
       <c r="AO2">
-        <v>287.15439891213202</v>
+        <v>287.15439887631953</v>
       </c>
       <c r="AP2">
-        <v>336.53002006969342</v>
+        <v>336.53002005386776</v>
       </c>
       <c r="AQ2">
-        <v>305.66392847691037</v>
+        <v>305.6639284405972</v>
       </c>
       <c r="AR2">
-        <v>295.11651230983693</v>
+        <v>295.08680077718327</v>
       </c>
       <c r="AS2">
-        <v>293.71711566865537</v>
+        <v>293.71711565062799</v>
       </c>
       <c r="AT2">
-        <v>237.19226443142486</v>
+        <v>237.97493915597835</v>
       </c>
       <c r="AU2">
-        <v>296.42963768602215</v>
+        <v>297.67626527268885</v>
       </c>
       <c r="AV2">
-        <v>293.18378385768102</v>
+        <v>296.1366081630029</v>
       </c>
       <c r="AW2">
-        <v>263.38530383707291</v>
+        <v>264.33452344480844</v>
       </c>
       <c r="AX2">
-        <v>253.81652308786283</v>
+        <v>254.38433244500442</v>
       </c>
       <c r="AY2">
-        <v>244.79243909779711</v>
+        <v>244.79243908280415</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>293.19707612559671</v>
+      </c>
+      <c r="C3">
+        <v>262.28107244048851</v>
+      </c>
+      <c r="D3">
+        <v>219.43554897162804</v>
+      </c>
+      <c r="E3">
+        <v>260.19684846831916</v>
+      </c>
+      <c r="F3">
+        <v>241.6193121908064</v>
+      </c>
+      <c r="G3">
+        <v>268.86407430371997</v>
+      </c>
+      <c r="H3">
+        <v>230.43824283049005</v>
+      </c>
+      <c r="I3">
+        <v>311.29626229702069</v>
+      </c>
+      <c r="J3">
+        <v>240.77802109463522</v>
+      </c>
+      <c r="K3">
+        <v>253.52668941622238</v>
+      </c>
+      <c r="L3">
+        <v>270.73427171819708</v>
+      </c>
+      <c r="M3">
+        <v>298.546564385512</v>
+      </c>
+      <c r="N3">
         <v>294.73978121257522</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>250.20360560472221</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>289.73734468421736</v>
+      </c>
+      <c r="Q3">
+        <v>323.18947037010952</v>
+      </c>
+      <c r="R3">
+        <v>303.47706281951616</v>
+      </c>
+      <c r="S3">
+        <v>298.42337086498833</v>
+      </c>
+      <c r="T3">
+        <v>277.10044070490824</v>
+      </c>
+      <c r="U3">
+        <v>219.20125237602525</v>
+      </c>
+      <c r="V3">
+        <v>303.00007814496587</v>
+      </c>
+      <c r="W3">
+        <v>265.24255463352677</v>
+      </c>
+      <c r="X3">
+        <v>268.87377815761914</v>
+      </c>
+      <c r="Y3">
+        <v>251.89023795509971</v>
+      </c>
+      <c r="Z3">
+        <v>260.10657287892872</v>
+      </c>
+      <c r="AA3">
+        <v>302.19066378919001</v>
+      </c>
+      <c r="AB3">
+        <v>254.75714656369166</v>
+      </c>
+      <c r="AC3">
+        <v>221.38214630885346</v>
+      </c>
+      <c r="AD3">
+        <v>255.09276084767396</v>
+      </c>
+      <c r="AE3">
+        <v>256.60470258475516</v>
+      </c>
+      <c r="AF3">
+        <v>266.5323269510572</v>
+      </c>
+      <c r="AG3">
+        <v>233.67317760742486</v>
+      </c>
+      <c r="AH3">
+        <v>314.32668314450416</v>
+      </c>
+      <c r="AI3">
+        <v>241.62873937425579</v>
+      </c>
+      <c r="AJ3">
+        <v>253.88948881744699</v>
+      </c>
+      <c r="AK3">
+        <v>242.81102386580955</v>
+      </c>
+      <c r="AL3">
+        <v>308.66132769756263</v>
+      </c>
+      <c r="AM3">
         <v>305.39943412595017</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>248.23193479038781</v>
       </c>
-      <c r="F3">
-        <v>240.88121374037001</v>
-      </c>
-      <c r="G3">
-        <v>268.00847548125512</v>
-      </c>
-      <c r="H3">
-        <v>230.43824286872172</v>
-      </c>
-      <c r="I3">
-        <v>311.29626231132352</v>
-      </c>
-      <c r="J3">
-        <v>240.77802110121337</v>
-      </c>
-      <c r="K3">
-        <v>253.52668945196919</v>
-      </c>
-      <c r="L3">
-        <v>270.73427176385536</v>
-      </c>
-      <c r="M3">
-        <v>297.31347590372303</v>
-      </c>
-      <c r="N3">
-        <v>294.73978125141667</v>
-      </c>
-      <c r="O3">
-        <v>250.20360563115833</v>
-      </c>
-      <c r="P3">
-        <v>289.27798024853058</v>
-      </c>
-      <c r="Q3">
-        <v>322.55624288450105</v>
-      </c>
-      <c r="R3">
-        <v>301.61579615876985</v>
-      </c>
-      <c r="S3">
-        <v>298.42337088098509</v>
-      </c>
-      <c r="T3">
-        <v>276.25549322472381</v>
-      </c>
-      <c r="U3">
-        <v>219.20125240351254</v>
-      </c>
-      <c r="V3">
-        <v>303.00007816439864</v>
-      </c>
-      <c r="W3">
-        <v>265.24255469942761</v>
-      </c>
-      <c r="X3">
-        <v>268.8737782159393</v>
-      </c>
-      <c r="Y3">
-        <v>251.89023797267032</v>
-      </c>
-      <c r="Z3">
-        <v>259.91128587785909</v>
-      </c>
-      <c r="AA3">
-        <v>302.19066382720439</v>
-      </c>
-      <c r="AB3">
-        <v>254.02789376444946</v>
-      </c>
-      <c r="AC3">
-        <v>221.38214633974624</v>
-      </c>
-      <c r="AD3">
-        <v>255.09276090029277</v>
-      </c>
-      <c r="AE3">
-        <v>256.57273446666727</v>
-      </c>
-      <c r="AF3">
-        <v>265.84453342399206</v>
-      </c>
-      <c r="AG3">
-        <v>233.67317764096595</v>
-      </c>
-      <c r="AH3">
-        <v>314.32668314001961</v>
-      </c>
-      <c r="AI3">
-        <v>241.62873942543501</v>
-      </c>
-      <c r="AJ3">
-        <v>253.88948886584683</v>
-      </c>
-      <c r="AK3">
-        <v>242.81102390820553</v>
-      </c>
-      <c r="AL3">
-        <v>307.13241946580257</v>
-      </c>
-      <c r="AM3">
-        <v>305.39943416946437</v>
-      </c>
-      <c r="AN3">
-        <v>248.23193481069296</v>
-      </c>
       <c r="AO3">
-        <v>289.96001807196529</v>
+        <v>290.53287435022304</v>
       </c>
       <c r="AP3">
-        <v>320.70926917855763</v>
+        <v>321.30933968159684</v>
       </c>
       <c r="AQ3">
-        <v>307.66310627881614</v>
+        <v>308.59097660620898</v>
       </c>
       <c r="AR3">
-        <v>298.01424821824821</v>
+        <v>298.01424818913608</v>
       </c>
       <c r="AS3">
-        <v>275.49046040427061</v>
+        <v>275.97085367042524</v>
       </c>
       <c r="AT3">
-        <v>221.93919921769998</v>
+        <v>221.93919919520334</v>
       </c>
       <c r="AU3">
-        <v>298.71846602134133</v>
+        <v>298.71846599508689</v>
       </c>
       <c r="AV3">
-        <v>264.21821334539698</v>
+        <v>264.21821327766116</v>
       </c>
       <c r="AW3">
-        <v>266.53120664003342</v>
+        <v>266.53120661873027</v>
       </c>
       <c r="AX3">
-        <v>250.27916532701295</v>
+        <v>250.27916530082109</v>
       </c>
       <c r="AY3">
-        <v>262.03981013882105</v>
+        <v>262.26749136840402</v>
       </c>
     </row>
   </sheetData>
